--- a/supporting_data/local/rietdiep/Residences (Reitdiep - Groningen).xlsx
+++ b/supporting_data/local/rietdiep/Residences (Reitdiep - Groningen).xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-10360" windowWidth="51200" windowHeight="28360" tabRatio="500"/>
+    <workbookView xWindow="29840" yWindow="-10360" windowWidth="25600" windowHeight="28360" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="Analyse" sheetId="6" r:id="rId2"/>
-    <sheet name=".yml" sheetId="2" r:id="rId3"/>
+    <sheet name="Notes" sheetId="7" r:id="rId3"/>
+    <sheet name=".yml" sheetId="2" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="Eff_cooking_biomass">[1]technical_specs!$P$51</definedName>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="307">
   <si>
     <t>Electric heat pump ground</t>
   </si>
@@ -925,9 +926,6 @@
     <t>https://klimaatmonitor.databank.nl/Jive?sel_guid=595eadb3-c2c4-41d1-993a-a65d88f18af6</t>
   </si>
   <si>
-    <t>http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=83220NED&amp;D1=4,27,33,44-46,54,62,85,100&amp;D2=90-91,174-175&amp;HDR=T&amp;STB=G1&amp;VW=T</t>
-  </si>
-  <si>
     <t>Number of houses Reitdiep</t>
   </si>
   <si>
@@ -958,16 +956,58 @@
     <t>Geschaald NL</t>
   </si>
   <si>
-    <t>per household Reitdiep</t>
-  </si>
-  <si>
-    <t>CBS, 3310 kWh electriciteitsverbruik per huishouden.</t>
-  </si>
-  <si>
     <t>Verandert naar zelfde percentage als space heating, was 9.6%  in Nationale data en leek erg onrealistisch</t>
   </si>
   <si>
     <t>Verandert naar zelfde percentage als space heating, was 90.4%  in Nationale data en leek erg onrealistisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installed capacity Solar PV </t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Full load hours PV</t>
+  </si>
+  <si>
+    <t>Electricity use residences Reitdiep (per residence)</t>
+  </si>
+  <si>
+    <t>CBS: http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=83220NED&amp;D1=4,27,33,44-46,54,62,85,100&amp;D2=90-91,174-175&amp;HDR=T&amp;STB=G1&amp;VW=T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount of residences </t>
+  </si>
+  <si>
+    <t>2017: https://opendata.cbs.nl/statline/#/CBS/nl/dataset/83765NED/table?dl=5CC5</t>
+  </si>
+  <si>
+    <t>2015: http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=83220NED&amp;D1=4,27,33,44-46,54,62,85,100&amp;D2=90-91,174-175&amp;HDR=T&amp;STB=G1&amp;VW=T</t>
+  </si>
+  <si>
+    <t>CBS 2017: https://opendata.cbs.nl/statline/#/CBS/nl/dataset/83765NED/table?dl=5CC5</t>
+  </si>
+  <si>
+    <t>Electricity demand residences Reitdiep</t>
+  </si>
+  <si>
+    <t>Totl electricity production solar PV</t>
+  </si>
+  <si>
+    <t>Total residual electricity demand without PV</t>
+  </si>
+  <si>
+    <t>Berekend, zie Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity demand residences </t>
+  </si>
+  <si>
+    <t>CBS per household + solar PV</t>
   </si>
 </sst>
 </file>
@@ -1639,7 +1679,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2045,6 +2085,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
@@ -2711,8 +2752,8 @@
   </sheetPr>
   <dimension ref="A1:J192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2888,7 +2929,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="7"/>
       <c r="H12" s="202" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="I12" s="62"/>
       <c r="J12" s="1"/>
@@ -2901,6 +2942,9 @@
       <c r="E13" s="125"/>
       <c r="F13" s="19"/>
       <c r="G13" s="7"/>
+      <c r="H13" t="s">
+        <v>298</v>
+      </c>
       <c r="I13" s="62"/>
       <c r="J13" s="1"/>
     </row>
@@ -2908,7 +2952,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="22"/>
       <c r="C14" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>116</v>
@@ -2919,7 +2963,7 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I14" s="62"/>
       <c r="J14" s="1"/>
@@ -2928,7 +2972,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="22"/>
       <c r="C15" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>116</v>
@@ -2939,7 +2983,7 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I15" s="62"/>
       <c r="J15" s="1"/>
@@ -2948,7 +2992,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="22"/>
       <c r="C16" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>116</v>
@@ -2959,7 +3003,7 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="58" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I16" s="62"/>
       <c r="J16" s="1"/>
@@ -2968,7 +3012,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="22"/>
       <c r="C17" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>157</v>
@@ -2979,7 +3023,7 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="58" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I17" s="62"/>
       <c r="J17" s="1"/>
@@ -3020,7 +3064,7 @@
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I19" s="62"/>
       <c r="J19" s="1"/>
@@ -3046,9 +3090,7 @@
       <c r="D21" s="24"/>
       <c r="E21" s="50"/>
       <c r="F21" s="217"/>
-      <c r="G21" s="25" t="s">
-        <v>290</v>
-      </c>
+      <c r="G21" s="25"/>
       <c r="H21" s="3"/>
       <c r="I21" s="60"/>
       <c r="J21" s="1"/>
@@ -3064,14 +3106,12 @@
       </c>
       <c r="E22" s="126"/>
       <c r="F22" s="52">
-        <f>G22*F14</f>
-        <v>3038580</v>
-      </c>
-      <c r="G22" s="50">
-        <v>3310</v>
-      </c>
+        <f>Notes!D12</f>
+        <v>3204142.32</v>
+      </c>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="I22" s="60"/>
       <c r="J22" s="1"/>
@@ -3115,7 +3155,7 @@
       </c>
       <c r="G24" s="25"/>
       <c r="H24" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I24" s="60"/>
       <c r="J24" s="1"/>
@@ -3160,7 +3200,7 @@
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I26" s="60"/>
       <c r="J26" s="1"/>
@@ -3183,7 +3223,7 @@
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I27" s="60"/>
       <c r="J27" s="1"/>
@@ -4893,7 +4933,7 @@
       </c>
       <c r="G130" s="26"/>
       <c r="H130" s="56" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I130" s="60"/>
       <c r="J130" s="1"/>
@@ -4935,7 +4975,7 @@
       </c>
       <c r="G132" s="57"/>
       <c r="H132" s="56" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I132" s="60"/>
       <c r="J132" s="1"/>
@@ -6251,7 +6291,7 @@
       </c>
       <c r="E11" s="211">
         <f>Dashboard!F22*Dashboard!F186</f>
-        <v>10.938888</v>
+        <v>11.534912351999999</v>
       </c>
       <c r="F11" s="136">
         <f>Dashboard!F27</f>
@@ -6405,7 +6445,7 @@
       </c>
       <c r="E17" s="77">
         <f>E11*Dashboard!F43</f>
-        <v>0.87511104000000006</v>
+        <v>0.92279298815999999</v>
       </c>
       <c r="F17" s="77">
         <f>F11*Dashboard!F76</f>
@@ -6427,7 +6467,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4">
         <f>SUM(L20:L31)/(1-Dashboard!F17*Dashboard!F167)</f>
-        <v>29.988627585611674</v>
+        <v>30.069170518405031</v>
       </c>
       <c r="M17" s="64"/>
       <c r="N17" s="3"/>
@@ -6504,11 +6544,11 @@
       </c>
       <c r="M20" s="110">
         <f>L20/SUM($L$20:$L$31)</f>
-        <v>0.9040610396950105</v>
+        <v>0.90163943223774201</v>
       </c>
       <c r="N20" s="166">
         <f>SUM(D20:I20)/SUM($D$20:$I$31)</f>
-        <v>0.90858378343471669</v>
+        <v>0.90703726828487874</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="3"/>
@@ -6560,7 +6600,7 @@
       <c r="D22" s="172"/>
       <c r="E22" s="172">
         <f>(Dashboard!F92/K22)/(Dashboard!F$92/K$22+Dashboard!F$93/K$25+Dashboard!F$94/K$27)*(E$17-E$31)</f>
-        <v>3.7449306678940163E-2</v>
+        <v>3.9502775973642629E-2</v>
       </c>
       <c r="F22" s="172"/>
       <c r="G22" s="172"/>
@@ -6568,22 +6608,22 @@
       <c r="I22" s="172"/>
       <c r="J22" s="160">
         <f t="shared" si="1"/>
-        <v>3.7449306678940163E-2</v>
+        <v>3.9502775973642629E-2</v>
       </c>
       <c r="K22" s="3">
         <v>4.8000000000000078</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="0"/>
-        <v>0.17975667205891308</v>
+        <v>0.18961332467348493</v>
       </c>
       <c r="M22" s="110">
         <f t="shared" si="2"/>
-        <v>5.9941613381853803E-3</v>
+        <v>6.3059047324709062E-3</v>
       </c>
       <c r="N22" s="166">
         <f t="shared" si="3"/>
-        <v>1.3391179687535094E-3</v>
+        <v>1.4101419163924792E-3</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="107"/>
@@ -6677,7 +6717,7 @@
       <c r="D25" s="172"/>
       <c r="E25" s="172">
         <f>(Dashboard!F93/K25)/(Dashboard!F$92/K$22+Dashboard!F$93/K$25+Dashboard!F$94/K$27)*(E$17-E$31)</f>
-        <v>0.13056611608596591</v>
+        <v>0.13772548788982003</v>
       </c>
       <c r="F25" s="172"/>
       <c r="G25" s="172"/>
@@ -6685,22 +6725,22 @@
       <c r="I25" s="172"/>
       <c r="J25" s="160">
         <f t="shared" si="1"/>
-        <v>0.13056611608596591</v>
+        <v>0.13772548788982003</v>
       </c>
       <c r="K25" s="3">
         <v>4.5000000000000044</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="0"/>
-        <v>0.58754752238684715</v>
+        <v>0.61976469550419078</v>
       </c>
       <c r="M25" s="110">
         <f t="shared" si="2"/>
-        <v>1.959234448824021E-2</v>
+        <v>2.0611300039847763E-2</v>
       </c>
       <c r="N25" s="166">
         <f t="shared" si="3"/>
-        <v>4.6688029142979513E-3</v>
+        <v>4.9164262166948485E-3</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="107"/>
@@ -6735,11 +6775,11 @@
       </c>
       <c r="M26" s="110">
         <f t="shared" si="2"/>
-        <v>1.0220590801833336E-2</v>
+        <v>1.0193214045379193E-2</v>
       </c>
       <c r="N26" s="166">
         <f t="shared" si="3"/>
-        <v>1.3365764210669812E-2</v>
+        <v>1.3343014127278688E-2</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="108"/>
@@ -6755,7 +6795,7 @@
       <c r="D27" s="172"/>
       <c r="E27" s="172">
         <f>(Dashboard!F94/K27)/(Dashboard!F$92/K$22+Dashboard!F$93/K$25+Dashboard!F$94/K$27)*(E$17-E$31)</f>
-        <v>0.70156461152135774</v>
+        <v>0.74003371858280109</v>
       </c>
       <c r="F27" s="172"/>
       <c r="G27" s="172"/>
@@ -6763,22 +6803,22 @@
       <c r="I27" s="172"/>
       <c r="J27" s="160">
         <f t="shared" si="1"/>
-        <v>0.70156461152135774</v>
+        <v>0.74003371858280109</v>
       </c>
       <c r="K27" s="3">
         <v>1</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="0"/>
-        <v>0.70156461152135774</v>
+        <v>0.74003371858280109</v>
       </c>
       <c r="M27" s="110">
         <f t="shared" si="2"/>
-        <v>2.3394355394174934E-2</v>
+        <v>2.4611045327300733E-2</v>
       </c>
       <c r="N27" s="166">
         <f t="shared" si="3"/>
-        <v>2.508665342149435E-2</v>
+        <v>2.6417195764006349E-2</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="3"/>
@@ -6813,11 +6853,11 @@
       </c>
       <c r="M28" s="110">
         <f t="shared" si="2"/>
-        <v>2.9604285057886152E-2</v>
+        <v>2.9524987361917009E-2</v>
       </c>
       <c r="N28" s="166">
         <f t="shared" si="3"/>
-        <v>3.9682245274817181E-2</v>
+        <v>3.9614701483461912E-2</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="3"/>
@@ -6852,11 +6892,11 @@
       </c>
       <c r="M29" s="110">
         <f t="shared" si="2"/>
-        <v>5.377486518094764E-3</v>
+        <v>5.3630824448277952E-3</v>
       </c>
       <c r="N29" s="166">
         <f t="shared" si="3"/>
-        <v>6.784097037647552E-3</v>
+        <v>6.7725497163790265E-3</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="3"/>
@@ -6891,11 +6931,11 @@
       </c>
       <c r="M30" s="110">
         <f t="shared" si="2"/>
-        <v>6.4555660481329711E-5</v>
+        <v>6.4382742434907519E-5</v>
       </c>
       <c r="N30" s="166">
         <f t="shared" si="3"/>
-        <v>8.6531849969994279E-5</v>
+        <v>8.6384562708916157E-5</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="3"/>
@@ -6933,11 +6973,11 @@
       </c>
       <c r="M31" s="110">
         <f t="shared" si="2"/>
-        <v>1.6911810460932734E-3</v>
+        <v>1.6866510680796296E-3</v>
       </c>
       <c r="N31" s="166">
         <f t="shared" si="3"/>
-        <v>4.0300388763299833E-4</v>
+        <v>4.0231792819917271E-4</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="3"/>
@@ -7018,7 +7058,7 @@
       </c>
       <c r="E35" s="77">
         <f>E11*Dashboard!F44</f>
-        <v>0.5469444</v>
+        <v>0.57674561759999998</v>
       </c>
       <c r="F35" s="77">
         <f>F11*Dashboard!F77</f>
@@ -7040,7 +7080,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4">
         <f>SUM(L37:L48)/(1-Dashboard!F17*Dashboard!F168)</f>
-        <v>5.3791694201580604</v>
+        <v>5.4120874012307585</v>
       </c>
       <c r="M35" s="178"/>
       <c r="N35" s="84"/>
@@ -7097,11 +7137,11 @@
       </c>
       <c r="M37" s="110">
         <f t="shared" ref="M37:M48" si="6">L37/SUM($L$37:$L$48)</f>
-        <v>0.85879779843795656</v>
+        <v>0.85357432594417781</v>
       </c>
       <c r="N37" s="166">
         <f t="shared" ref="N37:N48" si="7">SUM(D37:I37)/SUM($D$37:$I$48)</f>
-        <v>0.86912927646203353</v>
+        <v>0.86476559385926033</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -7117,7 +7157,7 @@
       <c r="D38" s="172"/>
       <c r="E38" s="172">
         <f>(Dashboard!F115/K38)/(Dashboard!F$114/K$38+Dashboard!F$115/K$41+Dashboard!F$116/K$43)*(E$35-E$48)</f>
-        <v>6.9991159058256924E-3</v>
+        <v>7.3809950365994505E-3</v>
       </c>
       <c r="F38" s="172"/>
       <c r="G38" s="172"/>
@@ -7125,22 +7165,22 @@
       <c r="I38" s="172"/>
       <c r="J38" s="160">
         <f t="shared" si="4"/>
-        <v>6.9991159058256924E-3</v>
+        <v>7.3809950365994505E-3</v>
       </c>
       <c r="K38" s="3">
         <v>3.0000000000000031</v>
       </c>
       <c r="L38" s="3">
         <f t="shared" si="5"/>
-        <v>2.0997347717477098E-2</v>
+        <v>2.2142985109798376E-2</v>
       </c>
       <c r="M38" s="110">
         <f t="shared" si="6"/>
-        <v>3.9034553622332492E-3</v>
+        <v>4.0913945892231633E-3</v>
       </c>
       <c r="N38" s="166">
         <f t="shared" si="7"/>
-        <v>1.1851243706668829E-3</v>
+        <v>1.2435111380892851E-3</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -7234,7 +7274,7 @@
       <c r="D41" s="172"/>
       <c r="E41" s="172">
         <f>(Dashboard!F114/K41)/(Dashboard!F$114/K$38+Dashboard!F$115/K$41+Dashboard!F$116/K$43)*(E$35-E$48)</f>
-        <v>3.418834816132324E-2</v>
+        <v>3.6053700422109453E-2</v>
       </c>
       <c r="F41" s="172"/>
       <c r="G41" s="172"/>
@@ -7242,22 +7282,22 @@
       <c r="I41" s="172"/>
       <c r="J41" s="160">
         <f t="shared" si="4"/>
-        <v>3.418834816132324E-2</v>
+        <v>3.6053700422109453E-2</v>
       </c>
       <c r="K41" s="3">
         <v>3.0000000000000031</v>
       </c>
       <c r="L41" s="3">
         <f t="shared" si="5"/>
-        <v>0.10256504448396983</v>
+        <v>0.10816110126632847</v>
       </c>
       <c r="M41" s="110">
         <f t="shared" si="6"/>
-        <v>1.9067078292722018E-2</v>
+        <v>1.9985098770158746E-2</v>
       </c>
       <c r="N41" s="166">
         <f t="shared" si="7"/>
-        <v>5.7889375092508352E-3</v>
+        <v>6.0741374058534614E-3</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -7312,7 +7352,7 @@
       <c r="D43" s="172"/>
       <c r="E43" s="172">
         <f>(Dashboard!F116/K43)/(Dashboard!F$114/K$38+Dashboard!F$115/K$41+Dashboard!F$116/K$43)*(E$35-E$48)</f>
-        <v>0.50501199882181935</v>
+        <v>0.53256598503025931</v>
       </c>
       <c r="F43" s="172"/>
       <c r="G43" s="172"/>
@@ -7320,22 +7360,22 @@
       <c r="I43" s="172"/>
       <c r="J43" s="160">
         <f t="shared" si="4"/>
-        <v>0.50501199882181935</v>
+        <v>0.53256598503025931</v>
       </c>
       <c r="K43" s="3">
         <v>0.95</v>
       </c>
       <c r="L43" s="3">
         <f t="shared" si="5"/>
-        <v>0.47976139888072838</v>
+        <v>0.50593768577874632</v>
       </c>
       <c r="M43" s="110">
         <f t="shared" si="6"/>
-        <v>8.91887504198801E-2</v>
+        <v>9.348291117096362E-2</v>
       </c>
       <c r="N43" s="166">
         <f t="shared" si="7"/>
-        <v>8.5511089591297079E-2</v>
+        <v>8.9723909969966528E-2</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -7370,11 +7410,11 @@
       </c>
       <c r="M44" s="110">
         <f t="shared" si="6"/>
-        <v>2.8004276036020313E-2</v>
+        <v>2.7833945411223179E-2</v>
       </c>
       <c r="N44" s="166">
         <f t="shared" si="7"/>
-        <v>3.8070231123418077E-2</v>
+        <v>3.787908993218693E-2</v>
       </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -7529,11 +7569,11 @@
       </c>
       <c r="M48" s="110">
         <f t="shared" si="6"/>
-        <v>1.0386414511877736E-3</v>
+        <v>1.0323241142534618E-3</v>
       </c>
       <c r="N48" s="166">
         <f t="shared" si="7"/>
-        <v>3.153409433336556E-4</v>
+        <v>3.1375769464369241E-4</v>
       </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
@@ -7611,7 +7651,7 @@
       <c r="D52" s="77"/>
       <c r="E52" s="77">
         <f>E11*Dashboard!F46</f>
-        <v>0.87511104000000006</v>
+        <v>0.92279298815999999</v>
       </c>
       <c r="F52" s="77"/>
       <c r="G52" s="77"/>
@@ -7621,7 +7661,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4">
         <f>SUM(L54:L56)</f>
-        <v>3.5031857836567752</v>
+        <v>3.6940629584335567</v>
       </c>
       <c r="M52" s="178"/>
       <c r="N52" s="84"/>
@@ -7659,7 +7699,7 @@
       <c r="D54" s="170"/>
       <c r="E54" s="171">
         <f>(Dashboard!F130/K54)/(Dashboard!F$130/K$54+Dashboard!F$131/K$55+Dashboard!F$132/K$56)*E$52</f>
-        <v>4.5693727612914434E-3</v>
+        <v>4.8183429892611589E-3</v>
       </c>
       <c r="F54" s="171"/>
       <c r="G54" s="171"/>
@@ -7667,18 +7707,18 @@
       <c r="I54" s="171"/>
       <c r="J54" s="160">
         <f>SUM(D54:I54)</f>
-        <v>4.5693727612914434E-3</v>
+        <v>4.8183429892611589E-3</v>
       </c>
       <c r="K54" s="3">
         <v>4.6000000000000023</v>
       </c>
       <c r="L54" s="3">
         <f>K54*SUM(D54:I54)</f>
-        <v>2.101911470194065E-2</v>
+        <v>2.216437775060134E-2</v>
       </c>
       <c r="M54" s="110">
         <f>L54/SUM($L$54:$L$56)</f>
-        <v>5.9999999999999993E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="N54" s="166">
         <f>SUM(D54:I54)/SUM($D$54:$I$56)</f>
@@ -7737,7 +7777,7 @@
       <c r="D56" s="175"/>
       <c r="E56" s="174">
         <f>(Dashboard!F132/K56)/(Dashboard!F$130/K$54+Dashboard!F$131/K$55+Dashboard!F$132/K$56)*E$52</f>
-        <v>0.87054166723870863</v>
+        <v>0.91797464517073879</v>
       </c>
       <c r="F56" s="174"/>
       <c r="G56" s="174"/>
@@ -7745,14 +7785,14 @@
       <c r="I56" s="174"/>
       <c r="J56" s="160">
         <f>SUM(D56:I56)</f>
-        <v>0.87054166723870863</v>
+        <v>0.91797464517073879</v>
       </c>
       <c r="K56" s="3">
         <v>4</v>
       </c>
       <c r="L56" s="3">
         <f>K56*SUM(D56:I56)</f>
-        <v>3.4821666689548345</v>
+        <v>3.6718985806829552</v>
       </c>
       <c r="M56" s="110">
         <f>L56/SUM($L$54:$L$56)</f>
@@ -7841,7 +7881,7 @@
       </c>
       <c r="E60" s="77">
         <f>E11*Dashboard!F45</f>
-        <v>0.65633328000000002</v>
+        <v>0.69209474111999991</v>
       </c>
       <c r="F60" s="77"/>
       <c r="G60" s="77"/>
@@ -7854,7 +7894,7 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4">
         <f>SUM(L62:L66)</f>
-        <v>1.1495882126937891</v>
+        <v>1.1725594764773519</v>
       </c>
       <c r="M60" s="178"/>
       <c r="N60" s="84"/>
@@ -7911,11 +7951,11 @@
       </c>
       <c r="M62" s="110">
         <f>L62/SUM($L$62:$L$66)</f>
-        <v>0.63326550773699763</v>
+        <v>0.62085939161659343</v>
       </c>
       <c r="N62" s="166">
         <f>SUM(D62:I62)/SUM($D$62:$I$66)</f>
-        <v>0.73495615966689354</v>
+        <v>0.72449347770375727</v>
       </c>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
@@ -7931,7 +7971,7 @@
       <c r="D63" s="173"/>
       <c r="E63" s="172">
         <f>(Dashboard!F138/K63)/(Dashboard!F$138/K$63+Dashboard!F$139/K$64+Dashboard!F$140/K$65)*E$60</f>
-        <v>6.3934304748676299E-2</v>
+        <v>6.741787662164915E-2</v>
       </c>
       <c r="F63" s="172"/>
       <c r="G63" s="172"/>
@@ -7939,22 +7979,22 @@
       <c r="I63" s="172"/>
       <c r="J63" s="160">
         <f>SUM(D63:I63)</f>
-        <v>6.3934304748676299E-2</v>
+        <v>6.741787662164915E-2</v>
       </c>
       <c r="K63" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="L63" s="3">
         <f>K63*SUM(D63:I63)</f>
-        <v>3.5163867611771968E-2</v>
+        <v>3.7079832141907035E-2</v>
       </c>
       <c r="M63" s="110">
         <f>L63/SUM($L$62:$L$66)</f>
-        <v>3.0588229092375373E-2</v>
+        <v>3.1622986198792821E-2</v>
       </c>
       <c r="N63" s="166">
         <f>SUM(D63:I63)/SUM($D$62:$I$66)</f>
-        <v>2.5818275830255526E-2</v>
+        <v>2.6837459707568012E-2</v>
       </c>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
@@ -7970,7 +8010,7 @@
       <c r="D64" s="173"/>
       <c r="E64" s="172">
         <f>(Dashboard!F139/K64)/(Dashboard!F$138/K$63+Dashboard!F$139/K$64+Dashboard!F$140/K$65)*E$60</f>
-        <v>0.46843738832643234</v>
+        <v>0.49396101475261328</v>
       </c>
       <c r="F64" s="172"/>
       <c r="G64" s="172"/>
@@ -7978,22 +8018,22 @@
       <c r="I64" s="172"/>
       <c r="J64" s="160">
         <f>SUM(D64:I64)</f>
-        <v>0.46843738832643234</v>
+        <v>0.49396101475261328</v>
       </c>
       <c r="K64" s="3">
         <v>0.6</v>
       </c>
       <c r="L64" s="3">
         <f>K64*SUM(D64:I64)</f>
-        <v>0.28106243299585937</v>
+        <v>0.29637660885156797</v>
       </c>
       <c r="M64" s="110">
         <f>L64/SUM($L$62:$L$66)</f>
-        <v>0.24448966150866822</v>
+        <v>0.25276040558893775</v>
       </c>
       <c r="N64" s="166">
         <f>SUM(D64:I64)/SUM($D$62:$I$66)</f>
-        <v>0.18916676655135989</v>
+        <v>0.19663417916481374</v>
       </c>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -8009,7 +8049,7 @@
       <c r="D65" s="173"/>
       <c r="E65" s="172">
         <f>(Dashboard!F140/K65)/(Dashboard!F$138/K$63+Dashboard!F$139/K$64+Dashboard!F$140/K$65)*E$60</f>
-        <v>0.12396158692489141</v>
+        <v>0.13071584974573755</v>
       </c>
       <c r="F65" s="172"/>
       <c r="G65" s="172"/>
@@ -8017,22 +8057,22 @@
       <c r="I65" s="172"/>
       <c r="J65" s="160">
         <f>SUM(D65:I65)</f>
-        <v>0.12396158692489141</v>
+        <v>0.13071584974573755</v>
       </c>
       <c r="K65" s="3">
         <v>0.85</v>
       </c>
       <c r="L65" s="3">
         <f>K65*SUM(D65:I65)</f>
-        <v>0.1053673488861577</v>
+        <v>0.11110847228387691</v>
       </c>
       <c r="M65" s="110">
         <f>L65/SUM($L$62:$L$66)</f>
-        <v>9.1656601661958714E-2</v>
+        <v>9.4757216595676014E-2</v>
       </c>
       <c r="N65" s="166">
         <f>SUM(D65:I65)/SUM($D$62:$I$66)</f>
-        <v>5.0058797951491076E-2</v>
+        <v>5.2034883423860825E-2</v>
       </c>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -8149,7 +8189,7 @@
       <c r="D70" s="77"/>
       <c r="E70" s="77">
         <f>E11*Dashboard!F47</f>
-        <v>1.31266656</v>
+        <v>1.3841894822399998</v>
       </c>
       <c r="F70" s="77"/>
       <c r="G70" s="77"/>
@@ -8159,7 +8199,7 @@
       <c r="K70" s="4"/>
       <c r="L70" s="179">
         <f>SUM(L72:L74)</f>
-        <v>0.11049381818181821</v>
+        <v>0.11651426618181819</v>
       </c>
       <c r="M70" s="178"/>
       <c r="N70" s="84"/>
@@ -8197,7 +8237,7 @@
       <c r="D72" s="170"/>
       <c r="E72" s="171">
         <f>(Dashboard!F146/K72)/(Dashboard!F$146/K$72+Dashboard!F$147/K$73+Dashboard!F$148/K$74)*E$70</f>
-        <v>1.0938888</v>
+        <v>1.1534912352</v>
       </c>
       <c r="F72" s="171"/>
       <c r="G72" s="171"/>
@@ -8205,14 +8245,14 @@
       <c r="I72" s="171"/>
       <c r="J72" s="160">
         <f>SUM(D72:I72)</f>
-        <v>1.0938888</v>
+        <v>1.1534912352</v>
       </c>
       <c r="K72" s="3">
         <v>0.05</v>
       </c>
       <c r="L72" s="91">
         <f>K72*SUM(D72:I72)</f>
-        <v>5.4694440000000004E-2</v>
+        <v>5.767456176E-2</v>
       </c>
       <c r="M72" s="110">
         <f>L72/SUM($L$72:$L$74)</f>
@@ -8220,7 +8260,7 @@
       </c>
       <c r="N72" s="166">
         <f>E72/SUM($D$72:$I$74)</f>
-        <v>0.83333333333333326</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O72" s="74"/>
       <c r="P72" s="92"/>
@@ -8236,7 +8276,7 @@
       <c r="D73" s="173"/>
       <c r="E73" s="172">
         <f>(Dashboard!F147/K73)/(Dashboard!F$146/K$72+Dashboard!F$147/K$73+Dashboard!F$148/K$74)*E$70</f>
-        <v>0.21435800727272733</v>
+        <v>0.22603767639272729</v>
       </c>
       <c r="F73" s="172"/>
       <c r="G73" s="172"/>
@@ -8244,18 +8284,18 @@
       <c r="I73" s="172"/>
       <c r="J73" s="160">
         <f>SUM(D73:I73)</f>
-        <v>0.21435800727272733</v>
+        <v>0.22603767639272729</v>
       </c>
       <c r="K73" s="3">
         <v>0.25</v>
       </c>
       <c r="L73" s="91">
         <f>K73*SUM(D73:I73)</f>
-        <v>5.3589501818181833E-2</v>
+        <v>5.6509419098181822E-2</v>
       </c>
       <c r="M73" s="110">
         <f t="shared" ref="M73:M74" si="8">L73/SUM($L$72:$L$74)</f>
-        <v>0.48500000000000004</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="N73" s="166">
         <f>E73/SUM($D$72:$I$74)</f>
@@ -8275,7 +8315,7 @@
       <c r="D74" s="175"/>
       <c r="E74" s="174">
         <f>(Dashboard!F148/K74)/(Dashboard!F$146/K$72+Dashboard!F$147/K$73+Dashboard!F$148/K$74)*E$70</f>
-        <v>4.419752727272728E-3</v>
+        <v>4.6605706472727278E-3</v>
       </c>
       <c r="F74" s="174"/>
       <c r="G74" s="174"/>
@@ -8283,14 +8323,14 @@
       <c r="I74" s="174"/>
       <c r="J74" s="160">
         <f>SUM(D74:I74)</f>
-        <v>4.419752727272728E-3</v>
+        <v>4.6605706472727278E-3</v>
       </c>
       <c r="K74" s="3">
         <v>0.5</v>
       </c>
       <c r="L74" s="91">
         <f>K74*SUM(D74:I74)</f>
-        <v>2.209876363636364E-3</v>
+        <v>2.3302853236363639E-3</v>
       </c>
       <c r="M74" s="110">
         <f t="shared" si="8"/>
@@ -8298,7 +8338,7 @@
       </c>
       <c r="N74" s="166">
         <f>E74/SUM($D$72:$I$74)</f>
-        <v>3.3670033670033673E-3</v>
+        <v>3.3670033670033677E-3</v>
       </c>
       <c r="O74" s="1"/>
       <c r="P74" s="92"/>
@@ -8376,7 +8416,7 @@
       <c r="D78" s="137"/>
       <c r="E78" s="142">
         <f>E11*Dashboard!F48</f>
-        <v>6.6727216800000004</v>
+        <v>7.0362965347199991</v>
       </c>
       <c r="F78" s="137"/>
       <c r="G78" s="137"/>
@@ -8386,7 +8426,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="91">
         <f>SUM(L80:L87)</f>
-        <v>6.6727216799999995</v>
+        <v>7.0362965347199991</v>
       </c>
       <c r="M78" s="111"/>
       <c r="N78" s="84"/>
@@ -8424,7 +8464,7 @@
       <c r="D80" s="170"/>
       <c r="E80" s="171">
         <f>E$78*Dashboard!F152/K80</f>
-        <v>0.54716317776000001</v>
+        <v>0.5769763158470399</v>
       </c>
       <c r="F80" s="171"/>
       <c r="G80" s="171"/>
@@ -8432,14 +8472,14 @@
       <c r="I80" s="171"/>
       <c r="J80" s="177">
         <f t="shared" ref="J80:J87" si="9">SUM(D80:I80)</f>
-        <v>0.54716317776000001</v>
+        <v>0.5769763158470399</v>
       </c>
       <c r="K80" s="4">
         <v>1</v>
       </c>
       <c r="L80" s="179">
         <f t="shared" ref="L80:L87" si="10">K80*SUM(D80:I80)</f>
-        <v>0.54716317776000001</v>
+        <v>0.5769763158470399</v>
       </c>
       <c r="M80" s="180">
         <f>L80/SUM($L$80:$L$87)</f>
@@ -8463,7 +8503,7 @@
       <c r="D81" s="173"/>
       <c r="E81" s="172">
         <f>E$78*Dashboard!F153/K81</f>
-        <v>1.9684528956</v>
+        <v>2.0757074777423998</v>
       </c>
       <c r="F81" s="172"/>
       <c r="G81" s="172"/>
@@ -8471,14 +8511,14 @@
       <c r="I81" s="172"/>
       <c r="J81" s="160">
         <f t="shared" si="9"/>
-        <v>1.9684528956</v>
+        <v>2.0757074777423998</v>
       </c>
       <c r="K81" s="3">
         <v>1</v>
       </c>
       <c r="L81" s="91">
         <f t="shared" si="10"/>
-        <v>1.9684528956</v>
+        <v>2.0757074777423998</v>
       </c>
       <c r="M81" s="110">
         <f t="shared" ref="M81:M87" si="12">L81/SUM($L$80:$L$87)</f>
@@ -8502,7 +8542,7 @@
       <c r="D82" s="173"/>
       <c r="E82" s="172">
         <f>E$78*Dashboard!F154/K82</f>
-        <v>0.54716317776000001</v>
+        <v>0.5769763158470399</v>
       </c>
       <c r="F82" s="172"/>
       <c r="G82" s="172"/>
@@ -8510,14 +8550,14 @@
       <c r="I82" s="172"/>
       <c r="J82" s="160">
         <f t="shared" si="9"/>
-        <v>0.54716317776000001</v>
+        <v>0.5769763158470399</v>
       </c>
       <c r="K82" s="3">
         <v>1</v>
       </c>
       <c r="L82" s="91">
         <f t="shared" si="10"/>
-        <v>0.54716317776000001</v>
+        <v>0.5769763158470399</v>
       </c>
       <c r="M82" s="110">
         <f t="shared" si="12"/>
@@ -8541,7 +8581,7 @@
       <c r="D83" s="173"/>
       <c r="E83" s="172">
         <f>E$78*Dashboard!F155/K83</f>
-        <v>0.65392672464000001</v>
+        <v>0.68955706040255993</v>
       </c>
       <c r="F83" s="172"/>
       <c r="G83" s="172"/>
@@ -8549,14 +8589,14 @@
       <c r="I83" s="172"/>
       <c r="J83" s="160">
         <f t="shared" si="9"/>
-        <v>0.65392672464000001</v>
+        <v>0.68955706040255993</v>
       </c>
       <c r="K83" s="3">
         <v>1</v>
       </c>
       <c r="L83" s="91">
         <f t="shared" si="10"/>
-        <v>0.65392672464000001</v>
+        <v>0.68955706040255993</v>
       </c>
       <c r="M83" s="110">
         <f t="shared" si="12"/>
@@ -8580,7 +8620,7 @@
       <c r="D84" s="173"/>
       <c r="E84" s="172">
         <f>E$78*Dashboard!F156/K84</f>
-        <v>0.87412654008000013</v>
+        <v>0.92175484604831992</v>
       </c>
       <c r="F84" s="172"/>
       <c r="G84" s="172"/>
@@ -8588,22 +8628,22 @@
       <c r="I84" s="172"/>
       <c r="J84" s="160">
         <f t="shared" si="9"/>
-        <v>0.87412654008000013</v>
+        <v>0.92175484604831992</v>
       </c>
       <c r="K84" s="3">
         <v>1</v>
       </c>
       <c r="L84" s="91">
         <f t="shared" si="10"/>
-        <v>0.87412654008000013</v>
+        <v>0.92175484604831992</v>
       </c>
       <c r="M84" s="110">
         <f t="shared" si="12"/>
-        <v>0.13100000000000003</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="N84" s="166">
         <f t="shared" si="11"/>
-        <v>0.13100000000000003</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
@@ -8619,7 +8659,7 @@
       <c r="D85" s="173"/>
       <c r="E85" s="172">
         <f>E$78*Dashboard!F157/K85</f>
-        <v>0.87412654008000013</v>
+        <v>0.92175484604831992</v>
       </c>
       <c r="F85" s="172"/>
       <c r="G85" s="172"/>
@@ -8627,22 +8667,22 @@
       <c r="I85" s="172"/>
       <c r="J85" s="160">
         <f t="shared" si="9"/>
-        <v>0.87412654008000013</v>
+        <v>0.92175484604831992</v>
       </c>
       <c r="K85" s="3">
         <v>1</v>
       </c>
       <c r="L85" s="91">
         <f t="shared" si="10"/>
-        <v>0.87412654008000013</v>
+        <v>0.92175484604831992</v>
       </c>
       <c r="M85" s="110">
         <f t="shared" si="12"/>
-        <v>0.13100000000000003</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="N85" s="166">
         <f t="shared" si="11"/>
-        <v>0.13100000000000003</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
@@ -8658,7 +8698,7 @@
       <c r="D86" s="173"/>
       <c r="E86" s="172">
         <f>E$78*Dashboard!F158/K86</f>
-        <v>0.44039963088000006</v>
+        <v>0.46439557129151998</v>
       </c>
       <c r="F86" s="172"/>
       <c r="G86" s="172"/>
@@ -8666,22 +8706,22 @@
       <c r="I86" s="172"/>
       <c r="J86" s="160">
         <f t="shared" si="9"/>
-        <v>0.44039963088000006</v>
+        <v>0.46439557129151998</v>
       </c>
       <c r="K86" s="3">
         <v>1</v>
       </c>
       <c r="L86" s="91">
         <f t="shared" si="10"/>
-        <v>0.44039963088000006</v>
+        <v>0.46439557129151998</v>
       </c>
       <c r="M86" s="110">
         <f t="shared" si="12"/>
-        <v>6.6000000000000017E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="N86" s="166">
         <f t="shared" si="11"/>
-        <v>6.6000000000000017E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
@@ -8697,7 +8737,7 @@
       <c r="D87" s="175"/>
       <c r="E87" s="174">
         <f>E$78*Dashboard!F159/K87</f>
-        <v>0.76736299320000012</v>
+        <v>0.80917410149279989</v>
       </c>
       <c r="F87" s="174"/>
       <c r="G87" s="174"/>
@@ -8705,22 +8745,22 @@
       <c r="I87" s="174"/>
       <c r="J87" s="160">
         <f t="shared" si="9"/>
-        <v>0.76736299320000012</v>
+        <v>0.80917410149279989</v>
       </c>
       <c r="K87" s="3">
         <v>1</v>
       </c>
       <c r="L87" s="91">
         <f t="shared" si="10"/>
-        <v>0.76736299320000012</v>
+        <v>0.80917410149279989</v>
       </c>
       <c r="M87" s="110">
         <f t="shared" si="12"/>
-        <v>0.11500000000000003</v>
+        <v>0.115</v>
       </c>
       <c r="N87" s="166">
         <f t="shared" si="11"/>
-        <v>0.11500000000000003</v>
+        <v>0.115</v>
       </c>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
@@ -8881,7 +8921,7 @@
       </c>
       <c r="E94" s="102">
         <f>SUM(E20:E88)</f>
-        <v>21.002664960000004</v>
+        <v>22.147031715839997</v>
       </c>
       <c r="F94" s="102">
         <f>SUM(F20:F88)</f>
@@ -8921,7 +8961,7 @@
       </c>
       <c r="E95" s="102">
         <f t="shared" si="13"/>
-        <v>-21.002664960000004</v>
+        <v>-22.147031715839997</v>
       </c>
       <c r="F95" s="102">
         <f t="shared" si="13"/>
@@ -9005,13 +9045,145 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="203" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="203" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="203" t="s">
+        <v>291</v>
+      </c>
+      <c r="F3" s="203" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>3310</v>
+      </c>
+      <c r="F4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="221">
+        <f>Dashboard!F14</f>
+        <v>918</v>
+      </c>
+      <c r="F5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6">
+        <f>D4*D5</f>
+        <v>3038580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="221">
+        <f>Dashboard!F19</f>
+        <v>190.96</v>
+      </c>
+      <c r="F8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="221">
+        <f>Dashboard!F181</f>
+        <v>867</v>
+      </c>
+      <c r="F9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10">
+        <f>D8*D9</f>
+        <v>165562.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11" s="203"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="203" t="s">
+        <v>301</v>
+      </c>
+      <c r="B12" s="203" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="203"/>
+      <c r="D12" s="203">
+        <f>D6+D10</f>
+        <v>3204142.32</v>
+      </c>
+      <c r="E12" s="203"/>
+      <c r="F12" s="203" t="s">
+        <v>306</v>
+      </c>
+      <c r="G12" s="203"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D52" sqref="D5:D52"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9053,14 +9225,14 @@
       </c>
       <c r="B5">
         <f>Analyse!M64</f>
-        <v>0.24448966150866822</v>
+        <v>0.25276040558893775</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="str">
         <f>"  " &amp;A5 &amp; B5*C5</f>
-        <v xml:space="preserve">  :"households_cooker_halogen_electricity-households_useful_demand_cooking_useable_heat@useable_heat": 0.244489661508668</v>
+        <v xml:space="preserve">  :"households_cooker_halogen_electricity-households_useful_demand_cooking_useable_heat@useable_heat": 0.252760405588938</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -9069,14 +9241,14 @@
       </c>
       <c r="B6">
         <f>Analyse!M65</f>
-        <v>9.1656601661958714E-2</v>
+        <v>9.4757216595676014E-2</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ref="D6:D9" si="0">"  " &amp;A6 &amp; B6*C6</f>
-        <v xml:space="preserve">  :"households_cooker_induction_electricity-households_useful_demand_cooking_useable_heat@useable_heat": 0.0916566016619587</v>
+        <v xml:space="preserve">  :"households_cooker_induction_electricity-households_useful_demand_cooking_useable_heat@useable_heat": 0.094757216595676</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -9085,14 +9257,14 @@
       </c>
       <c r="B7">
         <f>Analyse!M62</f>
-        <v>0.63326550773699763</v>
+        <v>0.62085939161659343</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  :"households_cooker_network_gas-households_useful_demand_cooking_useable_heat@useable_heat": 0.633265507736998</v>
+        <v xml:space="preserve">  :"households_cooker_network_gas-households_useful_demand_cooking_useable_heat@useable_heat": 0.620859391616593</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -9101,14 +9273,14 @@
       </c>
       <c r="B8">
         <f>Analyse!M63</f>
-        <v>3.0588229092375373E-2</v>
+        <v>3.1622986198792821E-2</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  :"households_cooker_resistive_electricity-households_useful_demand_cooking_useable_heat@useable_heat": 0.0305882290923754</v>
+        <v xml:space="preserve">  :"households_cooker_resistive_electricity-households_useful_demand_cooking_useable_heat@useable_heat": 0.0316229861987928</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -9165,7 +9337,7 @@
       </c>
       <c r="B12">
         <f>Analyse!M54</f>
-        <v>5.9999999999999993E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -9264,14 +9436,14 @@
       </c>
       <c r="B18">
         <f>Analyse!M30</f>
-        <v>6.4555660481329711E-5</v>
+        <v>6.4382742434907519E-5</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" ref="D18:D28" si="2">"  " &amp;A18 &amp; B18*C18</f>
-        <v xml:space="preserve">  :"households_space_heater_coal_aggregator-households_useful_demand_for_space_heating_after_insulation_and_solar_heater@useable_heat": 6.45556604813297E-05</v>
+        <v xml:space="preserve">  :"households_space_heater_coal_aggregator-households_useful_demand_for_space_heating_after_insulation_and_solar_heater@useable_heat": 6.43827424349075E-05</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -9280,14 +9452,14 @@
       </c>
       <c r="B19">
         <f>Analyse!M20</f>
-        <v>0.9040610396950105</v>
+        <v>0.90163943223774201</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  :"households_space_heater_combined_network_gas_aggregator-households_useful_demand_for_space_heating_after_insulation_and_solar_heater@useable_heat": 0.904061039695011</v>
+        <v xml:space="preserve">  :"households_space_heater_combined_network_gas_aggregator-households_useful_demand_for_space_heating_after_insulation_and_solar_heater@useable_heat": 0.901639432237742</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -9296,14 +9468,14 @@
       </c>
       <c r="B20">
         <f>Analyse!M29</f>
-        <v>5.377486518094764E-3</v>
+        <v>5.3630824448277952E-3</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  :"households_space_heater_crude_oil_aggregator-households_useful_demand_for_space_heating_after_insulation_and_solar_heater@useable_heat": 0.00537748651809476</v>
+        <v xml:space="preserve">  :"households_space_heater_crude_oil_aggregator-households_useful_demand_for_space_heating_after_insulation_and_solar_heater@useable_heat": 0.0053630824448278</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -9328,14 +9500,14 @@
       </c>
       <c r="B22">
         <f>Analyse!M27</f>
-        <v>2.3394355394174934E-2</v>
+        <v>2.4611045327300733E-2</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  :"households_space_heater_electricity_aggregator-households_useful_demand_for_space_heating_after_insulation_and_solar_heater@useable_heat": 0.0233943553941749</v>
+        <v xml:space="preserve">  :"households_space_heater_electricity_aggregator-households_useful_demand_for_space_heating_after_insulation_and_solar_heater@useable_heat": 0.0246110453273007</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -9344,14 +9516,14 @@
       </c>
       <c r="B23">
         <f>Analyse!M25</f>
-        <v>1.959234448824021E-2</v>
+        <v>2.0611300039847763E-2</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  :"households_space_heater_heatpump_air_water_electricity_aggregator-households_useful_demand_for_space_heating_after_insulation_and_solar_heater@useable_heat": 0.0195923444882402</v>
+        <v xml:space="preserve">  :"households_space_heater_heatpump_air_water_electricity_aggregator-households_useful_demand_for_space_heating_after_insulation_and_solar_heater@useable_heat": 0.0206113000398478</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -9360,14 +9532,14 @@
       </c>
       <c r="B24">
         <f>Analyse!M22</f>
-        <v>5.9941613381853803E-3</v>
+        <v>6.3059047324709062E-3</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  :"households_space_heater_heatpump_ground_water_electricity_aggregator-households_useful_demand_for_space_heating_after_insulation_and_solar_heater@useable_heat": 0.00599416133818538</v>
+        <v xml:space="preserve">  :"households_space_heater_heatpump_ground_water_electricity_aggregator-households_useful_demand_for_space_heating_after_insulation_and_solar_heater@useable_heat": 0.00630590473247091</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -9376,14 +9548,14 @@
       </c>
       <c r="B25">
         <f>Analyse!M31</f>
-        <v>1.6911810460932734E-3</v>
+        <v>1.6866510680796296E-3</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  :"households_space_heater_hybrid_heatpump_air_water_electricity_aggregator-households_useful_demand_for_space_heating_after_insulation_and_solar_heater@useable_heat": 0.00169118104609327</v>
+        <v xml:space="preserve">  :"households_space_heater_hybrid_heatpump_air_water_electricity_aggregator-households_useful_demand_for_space_heating_after_insulation_and_solar_heater@useable_heat": 0.00168665106807963</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -9408,14 +9580,14 @@
       </c>
       <c r="B27">
         <f>Analyse!M28</f>
-        <v>2.9604285057886152E-2</v>
+        <v>2.9524987361917009E-2</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  :"households_space_heater_network_gas_aggregator-households_useful_demand_for_space_heating_after_insulation_and_solar_heater@useable_heat": 0.0296042850578862</v>
+        <v xml:space="preserve">  :"households_space_heater_network_gas_aggregator-households_useful_demand_for_space_heating_after_insulation_and_solar_heater@useable_heat": 0.029524987361917</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -9424,14 +9596,14 @@
       </c>
       <c r="B28">
         <f>Analyse!M26</f>
-        <v>1.0220590801833336E-2</v>
+        <v>1.0193214045379193E-2</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  :"households_space_heater_wood_pellets_aggregator-households_useful_demand_for_space_heating_after_insulation_and_solar_heater@useable_heat": 0.0102205908018333</v>
+        <v xml:space="preserve">  :"households_space_heater_wood_pellets_aggregator-households_useful_demand_for_space_heating_after_insulation_and_solar_heater@useable_heat": 0.0101932140453792</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -9456,14 +9628,14 @@
       </c>
       <c r="B30">
         <f>Analyse!M37</f>
-        <v>0.85879779843795656</v>
+        <v>0.85357432594417781</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  :"households_water_heater_combined_network_gas_aggregator-households_useful_demand_for_hot_water_after_solar_heater_and_p2h@useable_heat": 0.858797798437957</v>
+        <v xml:space="preserve">  :"households_water_heater_combined_network_gas_aggregator-households_useful_demand_for_hot_water_after_solar_heater_and_p2h@useable_heat": 0.853574325944178</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -9520,14 +9692,14 @@
       </c>
       <c r="B34">
         <f>Analyse!M41</f>
-        <v>1.9067078292722018E-2</v>
+        <v>1.9985098770158746E-2</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  :"households_water_heater_heatpump_air_water_electricity_aggregator-households_useful_demand_for_hot_water_after_solar_heater_and_p2h@useable_heat": 0.019067078292722</v>
+        <v xml:space="preserve">  :"households_water_heater_heatpump_air_water_electricity_aggregator-households_useful_demand_for_hot_water_after_solar_heater_and_p2h@useable_heat": 0.0199850987701587</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -9536,14 +9708,14 @@
       </c>
       <c r="B35">
         <f>Analyse!M38</f>
-        <v>3.9034553622332492E-3</v>
+        <v>4.0913945892231633E-3</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  :"households_water_heater_heatpump_ground_water_electricity_aggregator-households_useful_demand_for_hot_water_after_solar_heater_and_p2h@useable_heat": 0.00390345536223325</v>
+        <v xml:space="preserve">  :"households_water_heater_heatpump_ground_water_electricity_aggregator-households_useful_demand_for_hot_water_after_solar_heater_and_p2h@useable_heat": 0.00409139458922316</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -9552,14 +9724,14 @@
       </c>
       <c r="B36">
         <f>Analyse!M48</f>
-        <v>1.0386414511877736E-3</v>
+        <v>1.0323241142534618E-3</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  :"households_water_heater_hybrid_heatpump_air_water_electricity_aggregator-households_useful_demand_for_hot_water_after_solar_heater_and_p2h@useable_heat": 0.00103864145118777</v>
+        <v xml:space="preserve">  :"households_water_heater_hybrid_heatpump_air_water_electricity_aggregator-households_useful_demand_for_hot_water_after_solar_heater_and_p2h@useable_heat": 0.00103232411425346</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -9584,14 +9756,14 @@
       </c>
       <c r="B38">
         <f>Analyse!M44</f>
-        <v>2.8004276036020313E-2</v>
+        <v>2.7833945411223179E-2</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  :"households_water_heater_network_gas_aggregator-households_useful_demand_for_hot_water_after_solar_heater_and_p2h@useable_heat": 0.0280042760360203</v>
+        <v xml:space="preserve">  :"households_water_heater_network_gas_aggregator-households_useful_demand_for_hot_water_after_solar_heater_and_p2h@useable_heat": 0.0278339454112232</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -9600,14 +9772,14 @@
       </c>
       <c r="B39">
         <f>Analyse!M43</f>
-        <v>8.91887504198801E-2</v>
+        <v>9.348291117096362E-2</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  :"households_water_heater_resistive_electricity_aggregator-households_useful_demand_for_hot_water_after_solar_heater_and_p2h@useable_heat": 0.0891887504198801</v>
+        <v xml:space="preserve">  :"households_water_heater_resistive_electricity_aggregator-households_useful_demand_for_hot_water_after_solar_heater_and_p2h@useable_heat": 0.0934829111709636</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -9760,7 +9932,7 @@
       </c>
       <c r="B49">
         <f>Analyse!M73</f>
-        <v>0.48500000000000004</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -9837,14 +10009,14 @@
       </c>
       <c r="B56">
         <f>Analyse!L60</f>
-        <v>1.1495882126937891</v>
+        <v>1.1725594764773519</v>
       </c>
       <c r="C56">
         <v>1000000</v>
       </c>
       <c r="D56" t="str">
         <f>"  " &amp;A56 &amp; B56*C56</f>
-        <v xml:space="preserve">  households_useful_demand_cooking_useable_heat: 1149588.21269379</v>
+        <v xml:space="preserve">  households_useful_demand_cooking_useable_heat: 1172559.47647735</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -9853,14 +10025,14 @@
       </c>
       <c r="B57" s="117">
         <f>Analyse!L83</f>
-        <v>0.65392672464000001</v>
+        <v>0.68955706040255993</v>
       </c>
       <c r="C57">
         <v>1000000</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" ref="D57:D70" si="4">"  " &amp;A57 &amp; B57*C57</f>
-        <v xml:space="preserve">  households_appliances_clothes_dryer_electricity: 653926.72464</v>
+        <v xml:space="preserve">  households_appliances_clothes_dryer_electricity: 689557.06040256</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -9869,14 +10041,14 @@
       </c>
       <c r="B58" s="117">
         <f>Analyse!L85</f>
-        <v>0.87412654008000013</v>
+        <v>0.92175484604831992</v>
       </c>
       <c r="C58">
         <v>1000000</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  households_appliances_computer_media_electricity: 874126.54008</v>
+        <v xml:space="preserve">  households_appliances_computer_media_electricity: 921754.84604832</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -9885,14 +10057,14 @@
       </c>
       <c r="B59" s="117">
         <f>Analyse!L80</f>
-        <v>0.54716317776000001</v>
+        <v>0.5769763158470399</v>
       </c>
       <c r="C59">
         <v>1000000</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  households_appliances_dishwasher_electricity: 547163.17776</v>
+        <v xml:space="preserve">  households_appliances_dishwasher_electricity: 576976.31584704</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -9901,14 +10073,14 @@
       </c>
       <c r="B60" s="117">
         <f>Analyse!L81</f>
-        <v>1.9684528956</v>
+        <v>2.0757074777423998</v>
       </c>
       <c r="C60">
         <v>1000000</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  households_appliances_fridge_freezer_electricity: 1968452.8956</v>
+        <v xml:space="preserve">  households_appliances_fridge_freezer_electricity: 2075707.4777424</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -9917,14 +10089,14 @@
       </c>
       <c r="B61" s="117">
         <f>Analyse!L87</f>
-        <v>0.76736299320000012</v>
+        <v>0.80917410149279989</v>
       </c>
       <c r="C61">
         <v>1000000</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  households_appliances_other_electricity: 767362.9932</v>
+        <v xml:space="preserve">  households_appliances_other_electricity: 809174.1014928</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -9933,14 +10105,14 @@
       </c>
       <c r="B62" s="117">
         <f>Analyse!L84</f>
-        <v>0.87412654008000013</v>
+        <v>0.92175484604831992</v>
       </c>
       <c r="C62">
         <v>1000000</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  households_appliances_television_electricity: 874126.54008</v>
+        <v xml:space="preserve">  households_appliances_television_electricity: 921754.84604832</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -9949,14 +10121,14 @@
       </c>
       <c r="B63" s="117">
         <f>Analyse!L86</f>
-        <v>0.44039963088000006</v>
+        <v>0.46439557129151998</v>
       </c>
       <c r="C63">
         <v>1000000</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  households_appliances_vacuum_cleaner_electricity: 440399.63088</v>
+        <v xml:space="preserve">  households_appliances_vacuum_cleaner_electricity: 464395.57129152</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -9965,14 +10137,14 @@
       </c>
       <c r="B64" s="117">
         <f>Analyse!L82</f>
-        <v>0.54716317776000001</v>
+        <v>0.5769763158470399</v>
       </c>
       <c r="C64">
         <v>1000000</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  households_appliances_washing_machine_electricity: 547163.17776</v>
+        <v xml:space="preserve">  households_appliances_washing_machine_electricity: 576976.31584704</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -9981,14 +10153,14 @@
       </c>
       <c r="B65">
         <f>Analyse!L52*Analyse!L15</f>
-        <v>3.5031857836567752</v>
+        <v>3.6940629584335567</v>
       </c>
       <c r="C65">
         <v>1000000</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  households_new_houses_useful_demand_for_cooling: 3503185.78365678</v>
+        <v xml:space="preserve">  households_new_houses_useful_demand_for_cooling: 3694062.95843356</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -10013,14 +10185,14 @@
       </c>
       <c r="B67">
         <f>Analyse!L35</f>
-        <v>5.3791694201580604</v>
+        <v>5.4120874012307585</v>
       </c>
       <c r="C67">
         <v>1000000</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  households_useful_demand_hot_water: 5379169.42015806</v>
+        <v xml:space="preserve">  households_useful_demand_hot_water: 5412087.40123076</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -10029,14 +10201,14 @@
       </c>
       <c r="B68" s="117">
         <f>Analyse!L70</f>
-        <v>0.11049381818181821</v>
+        <v>0.11651426618181819</v>
       </c>
       <c r="C68">
         <v>1000000</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  households_useful_demand_light: 110493.818181818</v>
+        <v xml:space="preserve">  households_useful_demand_light: 116514.266181818</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -10045,14 +10217,14 @@
       </c>
       <c r="B69">
         <f>Analyse!L17*Analyse!L15</f>
-        <v>29.988627585611674</v>
+        <v>30.069170518405031</v>
       </c>
       <c r="C69">
         <v>1000000</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  households_new_houses_useful_demand_for_heating: 29988627.5856117</v>
+        <v xml:space="preserve">  households_new_houses_useful_demand_for_heating: 30069170.518405</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
